--- a/server/src/excel/Carga de Ciclos Automatica.xlsx
+++ b/server/src/excel/Carga de Ciclos Automatica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/435758ec50b2c87f/Documentos/Kiviu/KiviuNVCH/server/src/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{7E121760-52CA-4ADB-B9D4-5ABE313FE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0343836D-F0CC-4DE2-813F-2704725DFF15}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{7E121760-52CA-4ADB-B9D4-5ABE313FE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B89AF9E-B93B-48D7-9F7D-114F661B46DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="15" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="598">
   <si>
     <t>PRIMERA REVISION</t>
   </si>
@@ -1688,9 +1688,6 @@
   </si>
   <si>
     <t xml:space="preserve">Altas Web no clientes </t>
-  </si>
-  <si>
-    <t>2024-092-30</t>
   </si>
   <si>
     <t>ADMINISTRACION DE SUCURSALES - VILLA ANGELA</t>
@@ -2355,6 +2352,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31685,8 +31686,8 @@
   </sheetPr>
   <dimension ref="B1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -31716,7 +31717,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>540</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="14.25" customHeight="1">
@@ -33241,7 +33242,7 @@
       <c r="D4" s="78"/>
       <c r="E4" s="78"/>
       <c r="F4" s="78" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G4" s="7"/>
       <c r="J4" s="2" t="s">
@@ -33264,7 +33265,7 @@
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
       <c r="F5" s="80" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G5" s="9"/>
       <c r="J5" s="2">
@@ -33289,7 +33290,7 @@
       </c>
       <c r="E6" s="81"/>
       <c r="F6" s="80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -33307,7 +33308,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G7" s="9"/>
     </row>
@@ -33343,7 +33344,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G9" s="9"/>
     </row>
@@ -33361,7 +33362,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -33379,7 +33380,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -33397,7 +33398,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -33415,7 +33416,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -33433,7 +33434,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G14" s="9"/>
       <c r="K14" s="10"/>
@@ -33448,7 +33449,7 @@
       <c r="D15" s="79"/>
       <c r="E15" s="79"/>
       <c r="F15" s="80" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -33464,7 +33465,7 @@
       </c>
       <c r="E16" s="79"/>
       <c r="F16" s="80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G16" s="9"/>
     </row>
@@ -33482,7 +33483,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G17" s="9"/>
     </row>
@@ -33500,7 +33501,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -33514,7 +33515,7 @@
       <c r="D19" s="79"/>
       <c r="E19" s="79"/>
       <c r="F19" s="80" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G19" s="9"/>
     </row>
@@ -33530,7 +33531,7 @@
       </c>
       <c r="E20" s="79"/>
       <c r="F20" s="80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -33548,7 +33549,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G21" s="9"/>
     </row>
@@ -33566,7 +33567,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G22" s="9"/>
     </row>
@@ -34758,7 +34759,7 @@
       <c r="D4" s="83"/>
       <c r="E4" s="83"/>
       <c r="F4" s="83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G4" s="9"/>
       <c r="J4" s="2" t="s">
@@ -34773,7 +34774,7 @@
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1">
       <c r="B5" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C5" s="84">
         <v>96</v>
@@ -34796,7 +34797,7 @@
     </row>
     <row r="6" spans="2:12" ht="14.25" customHeight="1">
       <c r="B6" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C6" s="84">
         <v>97</v>
@@ -34810,7 +34811,7 @@
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1">
       <c r="B7" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C7" s="84">
         <v>1</v>
@@ -34824,7 +34825,7 @@
     </row>
     <row r="8" spans="2:12" ht="14.25" customHeight="1">
       <c r="B8" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C8" s="84">
         <v>1</v>
@@ -34840,7 +34841,7 @@
     </row>
     <row r="9" spans="2:12" ht="14.25" customHeight="1">
       <c r="B9" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C9" s="84">
         <v>1</v>
@@ -34850,13 +34851,13 @@
       </c>
       <c r="E9" s="76"/>
       <c r="F9" s="77" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1">
       <c r="B10" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C10" s="84">
         <v>1</v>
@@ -34872,7 +34873,7 @@
     </row>
     <row r="11" spans="2:12" ht="14.25" customHeight="1">
       <c r="B11" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C11" s="84">
         <v>1</v>
@@ -34888,7 +34889,7 @@
     </row>
     <row r="12" spans="2:12" ht="14.25" customHeight="1">
       <c r="B12" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C12" s="84">
         <v>1</v>
@@ -34904,7 +34905,7 @@
     </row>
     <row r="13" spans="2:12" ht="14.25" customHeight="1">
       <c r="B13" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C13" s="84">
         <v>1</v>
@@ -34914,13 +34915,13 @@
       </c>
       <c r="E13" s="76"/>
       <c r="F13" s="77" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="14.25" customHeight="1">
       <c r="B14" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C14" s="84">
         <v>2</v>
@@ -34928,14 +34929,14 @@
       <c r="D14" s="76"/>
       <c r="E14" s="86"/>
       <c r="F14" s="77" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G14" s="9"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="14.25" customHeight="1">
       <c r="B15" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C15" s="84">
         <v>2</v>
@@ -34945,13 +34946,13 @@
       </c>
       <c r="E15" s="76"/>
       <c r="F15" s="77" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:12" ht="14.25" customHeight="1">
       <c r="B16" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C16" s="84">
         <v>2</v>
@@ -34963,13 +34964,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1">
       <c r="B17" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C17" s="84">
         <v>2</v>
@@ -34981,13 +34982,13 @@
         <v>2</v>
       </c>
       <c r="F17" s="77" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1">
       <c r="B18" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C18" s="84">
         <v>2</v>
@@ -34999,13 +35000,13 @@
         <v>3</v>
       </c>
       <c r="F18" s="77" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1">
       <c r="B19" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C19" s="84">
         <v>2</v>
@@ -35017,13 +35018,13 @@
         <v>4</v>
       </c>
       <c r="F19" s="77" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1">
       <c r="B20" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C20" s="84">
         <v>2</v>
@@ -35035,13 +35036,13 @@
         <v>5</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1">
       <c r="B21" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C21" s="84">
         <v>2</v>
@@ -35053,13 +35054,13 @@
         <v>6</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1">
       <c r="B22" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C22" s="84">
         <v>2</v>
@@ -35071,13 +35072,13 @@
         <v>7</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1">
       <c r="B23" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C23" s="84">
         <v>2</v>
@@ -35087,13 +35088,13 @@
       </c>
       <c r="E23" s="76"/>
       <c r="F23" s="77" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7" ht="14.25" customHeight="1">
       <c r="B24" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C24" s="84">
         <v>2</v>
@@ -35103,7 +35104,7 @@
       </c>
       <c r="E24" s="76"/>
       <c r="F24" s="77" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -36240,7 +36241,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="14.25" customHeight="1">
@@ -36273,13 +36274,13 @@
     </row>
     <row r="4" spans="2:12" ht="14.25" customHeight="1">
       <c r="B4" s="88" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="90" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G4" s="9"/>
       <c r="J4" s="2" t="s">
@@ -36294,7 +36295,7 @@
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1">
       <c r="B5" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C5" s="84">
         <v>96</v>
@@ -36317,7 +36318,7 @@
     </row>
     <row r="6" spans="2:12" ht="14.25" customHeight="1">
       <c r="B6" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C6" s="84">
         <v>1</v>
@@ -36331,7 +36332,7 @@
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1">
       <c r="B7" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C7" s="84">
         <v>1</v>
@@ -36347,7 +36348,7 @@
     </row>
     <row r="8" spans="2:12" ht="14.25" customHeight="1">
       <c r="B8" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C8" s="84">
         <v>1</v>
@@ -36357,13 +36358,13 @@
       </c>
       <c r="E8" s="76"/>
       <c r="F8" s="91" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:12" ht="14.25" customHeight="1">
       <c r="B9" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C9" s="84">
         <v>1</v>
@@ -36379,7 +36380,7 @@
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1">
       <c r="B10" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C10" s="84">
         <v>1</v>
@@ -36389,13 +36390,13 @@
       </c>
       <c r="E10" s="76"/>
       <c r="F10" s="91" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:12" ht="14.25" customHeight="1">
       <c r="B11" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C11" s="84">
         <v>1</v>
@@ -36411,7 +36412,7 @@
     </row>
     <row r="12" spans="2:12" ht="14.25" customHeight="1">
       <c r="B12" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C12" s="84">
         <v>1</v>
@@ -36421,13 +36422,13 @@
       </c>
       <c r="E12" s="76"/>
       <c r="F12" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:12" ht="14.25" customHeight="1">
       <c r="B13" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C13" s="84">
         <v>2</v>
@@ -36435,13 +36436,13 @@
       <c r="D13" s="76"/>
       <c r="E13" s="86"/>
       <c r="F13" s="91" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="14.25" customHeight="1">
       <c r="B14" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C14" s="84">
         <v>2</v>
@@ -36451,14 +36452,14 @@
       </c>
       <c r="E14" s="76"/>
       <c r="F14" s="91" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G14" s="9"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="14.25" customHeight="1">
       <c r="B15" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C15" s="84">
         <v>2</v>
@@ -36470,13 +36471,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="91" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:12" ht="14.25" customHeight="1">
       <c r="B16" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C16" s="84">
         <v>2</v>
@@ -36488,13 +36489,13 @@
         <v>2</v>
       </c>
       <c r="F16" s="91" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1">
       <c r="B17" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C17" s="84">
         <v>2</v>
@@ -36506,13 +36507,13 @@
         <v>3</v>
       </c>
       <c r="F17" s="91" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1">
       <c r="B18" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C18" s="84">
         <v>2</v>
@@ -36524,13 +36525,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1">
       <c r="B19" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C19" s="84">
         <v>2</v>
@@ -36542,13 +36543,13 @@
         <v>5</v>
       </c>
       <c r="F19" s="91" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1">
       <c r="B20" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C20" s="84">
         <v>2</v>
@@ -36558,13 +36559,13 @@
       </c>
       <c r="E20" s="76"/>
       <c r="F20" s="91" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1">
       <c r="B21" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C21" s="84">
         <v>2</v>
@@ -36574,13 +36575,13 @@
       </c>
       <c r="E21" s="76"/>
       <c r="F21" s="91" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1">
       <c r="B22" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C22" s="84">
         <v>2</v>
@@ -36590,13 +36591,13 @@
       </c>
       <c r="E22" s="76"/>
       <c r="F22" s="91" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1">
       <c r="B23" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C23" s="84">
         <v>2</v>
@@ -39291,7 +39292,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="14.25" customHeight="1">
@@ -39330,7 +39331,7 @@
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="89" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G4" s="9"/>
       <c r="J4" s="2" t="s">
@@ -39345,7 +39346,7 @@
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1">
       <c r="B5" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C5" s="76">
         <v>96</v>
@@ -39368,7 +39369,7 @@
     </row>
     <row r="6" spans="2:12" ht="14.25" customHeight="1">
       <c r="B6" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C6" s="76">
         <v>97</v>
@@ -39382,7 +39383,7 @@
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1">
       <c r="B7" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C7" s="84">
         <v>1</v>
@@ -39390,13 +39391,13 @@
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
       <c r="F7" s="77" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:12" ht="14.25" customHeight="1">
       <c r="B8" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C8" s="84">
         <v>2</v>
@@ -39404,13 +39405,13 @@
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="77" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:12" ht="14.25" customHeight="1">
       <c r="B9" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C9" s="84">
         <v>3</v>
@@ -39418,13 +39419,13 @@
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
       <c r="F9" s="77" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1">
       <c r="B10" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C10" s="84">
         <v>4</v>
@@ -39432,13 +39433,13 @@
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
       <c r="F10" s="77" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:12" ht="14.25" customHeight="1">
       <c r="B11" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C11" s="84">
         <v>5</v>
@@ -39446,13 +39447,13 @@
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
       <c r="F11" s="77" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:12" ht="14.25" customHeight="1">
       <c r="B12" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C12" s="84">
         <v>6</v>
@@ -39460,13 +39461,13 @@
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
       <c r="F12" s="77" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:12" ht="14.25" customHeight="1">
       <c r="B13" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C13" s="84">
         <v>7</v>
@@ -39474,13 +39475,13 @@
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
       <c r="F13" s="77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="14.25" customHeight="1">
       <c r="B14" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C14" s="84">
         <v>8</v>
@@ -39488,14 +39489,14 @@
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
       <c r="F14" s="77" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G14" s="9"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="14.25" customHeight="1">
       <c r="B15" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C15" s="84">
         <v>9</v>
@@ -39503,13 +39504,13 @@
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
       <c r="F15" s="77" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:12" ht="14.25" customHeight="1">
       <c r="B16" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C16" s="84">
         <v>10</v>
@@ -39517,13 +39518,13 @@
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
       <c r="F16" s="77" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1">
       <c r="B17" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C17" s="84">
         <v>11</v>
@@ -39531,13 +39532,13 @@
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
       <c r="F17" s="77" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1">
       <c r="B18" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C18" s="84">
         <v>12</v>
@@ -39545,13 +39546,13 @@
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
       <c r="F18" s="77" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1">
       <c r="B19" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C19" s="84">
         <v>13</v>
@@ -39559,13 +39560,13 @@
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
       <c r="F19" s="77" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1">
       <c r="B20" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C20" s="84">
         <v>14</v>
@@ -39573,13 +39574,13 @@
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
       <c r="F20" s="77" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1">
       <c r="B21" s="92" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C21" s="84">
         <v>15</v>
@@ -39587,7 +39588,7 @@
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
       <c r="F21" s="77" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1"/>
@@ -40709,7 +40710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB86B6DD-F223-4159-AFF0-A78C60AC153E}">
   <dimension ref="B1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -40738,7 +40739,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="14.25" customHeight="1">
@@ -40771,13 +40772,13 @@
     </row>
     <row r="4" spans="2:12" ht="14.25" customHeight="1">
       <c r="B4" s="93" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
       <c r="E4" s="89"/>
       <c r="F4" s="89" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G4" s="9"/>
       <c r="J4" s="2" t="s">
@@ -40792,7 +40793,7 @@
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1">
       <c r="B5" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C5" s="84">
         <v>97</v>
@@ -40815,7 +40816,7 @@
     </row>
     <row r="6" spans="2:12" ht="14.25" customHeight="1">
       <c r="B6" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C6" s="84">
         <v>1</v>
@@ -40829,7 +40830,7 @@
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1">
       <c r="B7" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C7" s="84">
         <v>1</v>
@@ -40845,7 +40846,7 @@
     </row>
     <row r="8" spans="2:12" ht="14.25" customHeight="1">
       <c r="B8" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C8" s="84">
         <v>1</v>
@@ -40855,13 +40856,13 @@
       </c>
       <c r="E8" s="76"/>
       <c r="F8" s="77" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:12" ht="14.25" customHeight="1">
       <c r="B9" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C9" s="84">
         <v>1</v>
@@ -40877,7 +40878,7 @@
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1">
       <c r="B10" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C10" s="84">
         <v>1</v>
@@ -40887,13 +40888,13 @@
       </c>
       <c r="E10" s="76"/>
       <c r="F10" s="77" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:12" ht="14.25" customHeight="1">
       <c r="B11" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C11" s="84">
         <v>1</v>
@@ -40909,7 +40910,7 @@
     </row>
     <row r="12" spans="2:12" ht="14.25" customHeight="1">
       <c r="B12" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C12" s="84">
         <v>1</v>
@@ -40919,13 +40920,13 @@
       </c>
       <c r="E12" s="76"/>
       <c r="F12" s="77" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:12" ht="14.25" customHeight="1">
       <c r="B13" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C13" s="84">
         <v>2</v>
@@ -40933,13 +40934,13 @@
       <c r="D13" s="76"/>
       <c r="E13" s="86"/>
       <c r="F13" s="77" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="14.25" customHeight="1">
       <c r="B14" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C14" s="84">
         <v>2</v>
@@ -40949,14 +40950,14 @@
       </c>
       <c r="E14" s="76"/>
       <c r="F14" s="77" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G14" s="9"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="14.25" customHeight="1">
       <c r="B15" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C15" s="84">
         <v>2</v>
@@ -40968,13 +40969,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:12" ht="14.25" customHeight="1">
       <c r="B16" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C16" s="84">
         <v>2</v>
@@ -40986,13 +40987,13 @@
         <v>2</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1">
       <c r="B17" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C17" s="84">
         <v>2</v>
@@ -41004,13 +41005,13 @@
         <v>3</v>
       </c>
       <c r="F17" s="77" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1">
       <c r="B18" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C18" s="84">
         <v>2</v>
@@ -41022,13 +41023,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="77" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1">
       <c r="B19" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C19" s="84">
         <v>2</v>
@@ -41040,13 +41041,13 @@
         <v>5</v>
       </c>
       <c r="F19" s="77" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1">
       <c r="B20" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C20" s="84">
         <v>2</v>
@@ -41056,13 +41057,13 @@
       </c>
       <c r="E20" s="76"/>
       <c r="F20" s="77" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1">
       <c r="B21" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C21" s="84">
         <v>2</v>
@@ -41072,13 +41073,13 @@
       </c>
       <c r="E21" s="76"/>
       <c r="F21" s="77" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1">
       <c r="B22" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C22" s="84">
         <v>2</v>
@@ -41088,13 +41089,13 @@
       </c>
       <c r="E22" s="76"/>
       <c r="F22" s="77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1">
       <c r="B23" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C23" s="84">
         <v>2</v>
